--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,40 +543,40 @@
         <v>0.191936</v>
       </c>
       <c r="I2">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="J2">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.036035</v>
+        <v>0.173461</v>
       </c>
       <c r="N2">
-        <v>0.108105</v>
+        <v>0.520383</v>
       </c>
       <c r="O2">
-        <v>0.0661331398574747</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P2">
-        <v>0.06613313985747468</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q2">
-        <v>0.002305471253333333</v>
+        <v>0.01109780349866667</v>
       </c>
       <c r="R2">
-        <v>0.02074924128</v>
+        <v>0.099880231488</v>
       </c>
       <c r="S2">
-        <v>0.01783339678757731</v>
+        <v>0.1941882607421045</v>
       </c>
       <c r="T2">
-        <v>0.01783339678757731</v>
+        <v>0.1941882607421045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>0.191936</v>
       </c>
       <c r="I3">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="J3">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>1.471133</v>
       </c>
       <c r="O3">
-        <v>0.8999643350256354</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P3">
-        <v>0.8999643350256353</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q3">
         <v>0.03137370927644444</v>
@@ -632,10 +635,10 @@
         <v>0.282363383488</v>
       </c>
       <c r="S3">
-        <v>0.2426834884260577</v>
+        <v>0.5489740414085671</v>
       </c>
       <c r="T3">
-        <v>0.2426834884260577</v>
+        <v>0.5489740414085672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +667,10 @@
         <v>0.191936</v>
       </c>
       <c r="I4">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="J4">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.018473</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N4">
-        <v>0.055419</v>
+        <v>0.13253</v>
       </c>
       <c r="O4">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P4">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q4">
-        <v>0.001181877909333333</v>
+        <v>0.002826364231111112</v>
       </c>
       <c r="R4">
-        <v>0.010636901184</v>
+        <v>0.02543727808</v>
       </c>
       <c r="S4">
-        <v>0.009142121239265036</v>
+        <v>0.04945543992818963</v>
       </c>
       <c r="T4">
-        <v>0.009142121239265036</v>
+        <v>0.04945543992818964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.173279</v>
+        <v>0.06397866666666667</v>
       </c>
       <c r="H5">
-        <v>0.519837</v>
+        <v>0.191936</v>
       </c>
       <c r="I5">
-        <v>0.7303409935471</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="J5">
-        <v>0.7303409935471</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.036035</v>
+        <v>0.08703</v>
       </c>
       <c r="N5">
-        <v>0.108105</v>
+        <v>0.26109</v>
       </c>
       <c r="O5">
-        <v>0.0661331398574747</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="P5">
-        <v>0.06613313985747468</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="Q5">
-        <v>0.006244108764999999</v>
+        <v>0.00556806336</v>
       </c>
       <c r="R5">
-        <v>0.056196978885</v>
+        <v>0.05011257023999999</v>
       </c>
       <c r="S5">
-        <v>0.04829974306989739</v>
+        <v>0.0974294183268017</v>
       </c>
       <c r="T5">
-        <v>0.04829974306989738</v>
+        <v>0.09742941832680173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.173279</v>
+        <v>0.007903666666666666</v>
       </c>
       <c r="H6">
-        <v>0.519837</v>
+        <v>0.023711</v>
       </c>
       <c r="I6">
-        <v>0.7303409935471</v>
+        <v>0.109952839594337</v>
       </c>
       <c r="J6">
-        <v>0.7303409935471</v>
+        <v>0.109952839594337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4903776666666667</v>
+        <v>0.173461</v>
       </c>
       <c r="N6">
-        <v>1.471133</v>
+        <v>0.520383</v>
       </c>
       <c r="O6">
-        <v>0.8999643350256354</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P6">
-        <v>0.8999643350256353</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q6">
-        <v>0.08497215170233333</v>
+        <v>0.001370977923666667</v>
       </c>
       <c r="R6">
-        <v>0.764749365321</v>
+        <v>0.012338801313</v>
       </c>
       <c r="S6">
-        <v>0.6572808465995778</v>
+        <v>0.02398923521619727</v>
       </c>
       <c r="T6">
-        <v>0.6572808465995778</v>
+        <v>0.02398923521619727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +838,179 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.007903666666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.023711</v>
+      </c>
+      <c r="I7">
+        <v>0.109952839594337</v>
+      </c>
+      <c r="J7">
+        <v>0.109952839594337</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.471133</v>
+      </c>
+      <c r="O7">
+        <v>0.6167920822963554</v>
+      </c>
+      <c r="P7">
+        <v>0.6167920822963555</v>
+      </c>
+      <c r="Q7">
+        <v>0.003875781618111111</v>
+      </c>
+      <c r="R7">
+        <v>0.034882034563</v>
+      </c>
+      <c r="S7">
+        <v>0.0678180408877883</v>
+      </c>
+      <c r="T7">
+        <v>0.06781804088778831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.173279</v>
-      </c>
-      <c r="H7">
-        <v>0.519837</v>
-      </c>
-      <c r="I7">
-        <v>0.7303409935471</v>
-      </c>
-      <c r="J7">
-        <v>0.7303409935471</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.018473</v>
-      </c>
-      <c r="N7">
-        <v>0.055419</v>
-      </c>
-      <c r="O7">
-        <v>0.03390252511688997</v>
-      </c>
-      <c r="P7">
-        <v>0.03390252511688997</v>
-      </c>
-      <c r="Q7">
-        <v>0.003200982967</v>
-      </c>
-      <c r="R7">
-        <v>0.028808846703</v>
-      </c>
-      <c r="S7">
-        <v>0.02476040387762493</v>
-      </c>
-      <c r="T7">
-        <v>0.02476040387762493</v>
+      <c r="G8">
+        <v>0.007903666666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.023711</v>
+      </c>
+      <c r="I8">
+        <v>0.109952839594337</v>
+      </c>
+      <c r="J8">
+        <v>0.109952839594337</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04417666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.13253</v>
+      </c>
+      <c r="O8">
+        <v>0.0555649656874912</v>
+      </c>
+      <c r="P8">
+        <v>0.0555649656874912</v>
+      </c>
+      <c r="Q8">
+        <v>0.0003491576477777778</v>
+      </c>
+      <c r="R8">
+        <v>0.00314241883</v>
+      </c>
+      <c r="S8">
+        <v>0.006109525759301561</v>
+      </c>
+      <c r="T8">
+        <v>0.006109525759301562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.007903666666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.023711</v>
+      </c>
+      <c r="I9">
+        <v>0.109952839594337</v>
+      </c>
+      <c r="J9">
+        <v>0.109952839594337</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.08703</v>
+      </c>
+      <c r="N9">
+        <v>0.26109</v>
+      </c>
+      <c r="O9">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="P9">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="Q9">
+        <v>0.0006878561099999999</v>
+      </c>
+      <c r="R9">
+        <v>0.00619070499</v>
+      </c>
+      <c r="S9">
+        <v>0.01203603773104991</v>
+      </c>
+      <c r="T9">
+        <v>0.01203603773104991</v>
       </c>
     </row>
   </sheetData>
